--- a/Excel-XLSX/UN-SMA.xlsx
+++ b/Excel-XLSX/UN-SMA.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>i22rVN</t>
+    <t>J8JJ7z</t>
   </si>
   <si>
     <t>0</t>

--- a/Excel-XLSX/UN-SMA.xlsx
+++ b/Excel-XLSX/UN-SMA.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>J8JJ7z</t>
+    <t>sYqT17</t>
   </si>
   <si>
     <t>0</t>

--- a/Excel-XLSX/UN-SMA.xlsx
+++ b/Excel-XLSX/UN-SMA.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>sYqT17</t>
+    <t>b3nU6T</t>
   </si>
   <si>
     <t>0</t>
